--- a/Configs/Gui.xlsx
+++ b/Configs/Gui.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>sn</t>
   </si>
@@ -38,10 +38,16 @@
     <t>sortingType</t>
   </si>
   <si>
+    <t>destroyTime</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
   </si>
   <si>
     <t>uiname</t>
@@ -53,14 +59,37 @@
     <t>UI类型
 0 default
 1 fullscreen
-2 tips
-3 system</t>
+2 fullOverlay
+3 tips
+4 system</t>
+  </si>
+  <si>
+    <t>销毁时间
+默认60s</t>
   </si>
   <si>
     <t>UI-MainPlayer</t>
   </si>
   <si>
     <t>Assets/GameRes/GameUI/UI-MainPlayer.prefab</t>
+  </si>
+  <si>
+    <t>UI-TestPanel</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/GameUI/UI-TestPanel.prefab</t>
+  </si>
+  <si>
+    <t>UI-MainTips</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/GameUI/UI-MainTips.prefab</t>
+  </si>
+  <si>
+    <t>UI-Dialog</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/GameUI/UI-Dialog.prefab</t>
   </si>
 </sst>
 </file>
@@ -994,20 +1023,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
     <col min="2" max="2" width="43.5" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1017,38 +1046,92 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" ht="67.5" spans="1:3">
+    <row r="3" ht="81" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>1</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Gui.xlsx
+++ b/Configs/Gui.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>sn</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>Assets/GameRes/GameUI/UI-Dialog.prefab</t>
+  </si>
+  <si>
+    <t>UI-MainHead</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/GameUI/UI-MainHead.prefab</t>
   </si>
 </sst>
 </file>
@@ -1023,13 +1029,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
     <col min="2" max="2" width="43.5" customWidth="1"/>
@@ -1134,6 +1140,20 @@
         <v>60</v>
       </c>
     </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Gui.xlsx
+++ b/Configs/Gui.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>sn</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>Assets/GameRes/GameUI/UI-MainHead.prefab</t>
+  </si>
+  <si>
+    <t>UI-SceneLoading</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/GameUI/UI-SceneLoading.prefab</t>
   </si>
 </sst>
 </file>
@@ -1029,17 +1035,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="43.5" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1151,6 +1158,20 @@
         <v>2</v>
       </c>
       <c r="D8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>60</v>
       </c>
     </row>

--- a/Configs/Gui.xlsx
+++ b/Configs/Gui.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>sn</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Assets/GameRes/GameUI/UI-SceneLoading.prefab</t>
+  </si>
+  <si>
+    <t>UI-MainWindow</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/GameUI/UI-MainWindow.prefab</t>
   </si>
 </sst>
 </file>
@@ -1035,10 +1041,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1175,6 +1181,20 @@
         <v>60</v>
       </c>
     </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Gui.xlsx
+++ b/Configs/Gui.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>sn</t>
   </si>
@@ -68,46 +68,52 @@
 默认60s</t>
   </si>
   <si>
-    <t>UI-MainPlayer</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/GameUI/UI-MainPlayer.prefab</t>
+    <t>UI-MainPlayerPanel</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/GameUI/MainPanel/UI-MainPlayerPanel.prefab</t>
   </si>
   <si>
     <t>UI-TestPanel</t>
   </si>
   <si>
-    <t>Assets/GameRes/GameUI/UI-TestPanel.prefab</t>
+    <t>Assets/GameRes/GameUI/Other/UI-TestPanel.prefab</t>
   </si>
   <si>
     <t>UI-MainTips</t>
   </si>
   <si>
-    <t>Assets/GameRes/GameUI/UI-MainTips.prefab</t>
-  </si>
-  <si>
-    <t>UI-Dialog</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/GameUI/UI-Dialog.prefab</t>
-  </si>
-  <si>
-    <t>UI-MainHead</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/GameUI/UI-MainHead.prefab</t>
-  </si>
-  <si>
-    <t>UI-SceneLoading</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/GameUI/UI-SceneLoading.prefab</t>
-  </si>
-  <si>
-    <t>UI-MainWindow</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/GameUI/UI-MainWindow.prefab</t>
+    <t>Assets/GameRes/GameUI/UITips/UI-MainTips.prefab</t>
+  </si>
+  <si>
+    <t>UI-DialogPanel</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/GameUI/MainPanel/UI-DialogPanel.prefab</t>
+  </si>
+  <si>
+    <t>UI-SceneLoadingPanel</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/GameUI/MainPanel/UI-SceneLoadingPanel.prefab</t>
+  </si>
+  <si>
+    <t>UI-MainPanel</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/GameUI/MainPanel/UI-MainPanel.prefab</t>
+  </si>
+  <si>
+    <t>UI-LevelSelectPanel</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/GameUI/MainPanel/UI-LevelSelectPanel.prefab</t>
+  </si>
+  <si>
+    <t>UI-CharaShowPanel</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/GameUI/MainPanel/UI-CharaShowPanel.prefab</t>
   </si>
 </sst>
 </file>
@@ -1041,16 +1047,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="2" max="2" width="59.875" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
@@ -1161,7 +1167,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>60</v>
@@ -1175,7 +1181,7 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>60</v>
@@ -1192,6 +1198,20 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>60</v>
       </c>
     </row>

--- a/Configs/Gui.xlsx
+++ b/Configs/Gui.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityPrj\LumiUnityPrj01\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92E804D-D43E-4B14-85EF-4F5CA9974691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F58CEEF-5B2A-4BD1-A4B6-1682825B1F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>sn</t>
   </si>
@@ -127,12 +127,19 @@
   <si>
     <t>Assets/GameRes/GameUI/UITips/UI-ConfirmTips.prefab</t>
   </si>
+  <si>
+    <t>UI-LevelBackPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameRes/GameUI/LevelPanel/UI-LevelBackPanel.prefab</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +149,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -170,12 +185,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -626,6 +644,20 @@
         <v>60</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Configs/Gui.xlsx
+++ b/Configs/Gui.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityPrj\LumiUnityPrj01\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F58CEEF-5B2A-4BD1-A4B6-1682825B1F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54230D2A-9023-4210-A96D-DA9688CFF18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>sn</t>
   </si>
@@ -133,6 +133,19 @@
   </si>
   <si>
     <t>Assets/GameRes/GameUI/LevelPanel/UI-LevelBackPanel.prefab</t>
+  </si>
+  <si>
+    <t>UI-CharaInfoPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameRes/GameUI/MainPanel/UI-CharaInfoPanel.prefab</t>
+  </si>
+  <si>
+    <t>UI-CharaTeamPanel</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/GameUI/MainPanel/UI-CharaTeamPanel.prefab</t>
   </si>
 </sst>
 </file>
@@ -462,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -658,6 +671,34 @@
         <v>60</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
